--- a/target/classes/OptimusCaseData.xlsx
+++ b/target/classes/OptimusCaseData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.vijaysingh.thakur\Documents\IDFC\SalesForceAutomationTest (3)\SalesForceAutomationTest\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.vijaysingh.thakur\Documents\IDFC\Test\SalesforceAutomationTest\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2331AF2-99F2-48FC-A9A0-4D93A819C1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE95561A-6B7D-4EFF-ADBD-3233B2449B82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="204">
   <si>
     <t>Scenario Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Operations</t>
   </si>
   <si>
-    <t>Email Modification SR Creation</t>
-  </si>
-  <si>
     <t>Global Search User</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Email Modification</t>
   </si>
   <si>
-    <t>Vishakha BOC</t>
-  </si>
-  <si>
     <t>Draft</t>
   </si>
   <si>
@@ -143,505 +137,517 @@
     <t>PAN No</t>
   </si>
   <si>
+    <t>ALVPJ0894K</t>
+  </si>
+  <si>
+    <t>Vandana</t>
+  </si>
+  <si>
+    <t>Card Unblock</t>
+  </si>
+  <si>
+    <t>Stop Payment of Cheque</t>
+  </si>
+  <si>
+    <t>Stop Payment of Chq</t>
+  </si>
+  <si>
+    <t>DNC</t>
+  </si>
+  <si>
+    <t>Local DNC Registration</t>
+  </si>
+  <si>
+    <t>Local DNC Deregistration</t>
+  </si>
+  <si>
+    <t>NetBanking</t>
+  </si>
+  <si>
+    <t>Block Backbase ID</t>
+  </si>
+  <si>
+    <t>Card delinking</t>
+  </si>
+  <si>
+    <t>Card Delinking</t>
+  </si>
+  <si>
+    <t>Reason for Reissue</t>
+  </si>
+  <si>
+    <t>Debit Card Reissuance</t>
+  </si>
+  <si>
+    <t>Lost/Stolen</t>
+  </si>
+  <si>
+    <t>Debit Card New Issuance</t>
+  </si>
+  <si>
+    <t>Switch On</t>
+  </si>
+  <si>
+    <t>Switch On/Off International/Domestic Usage</t>
+  </si>
+  <si>
+    <t>Authentication Mode</t>
+  </si>
+  <si>
+    <t>Email Modification By Branch</t>
+  </si>
+  <si>
+    <t>Form Based</t>
+  </si>
+  <si>
+    <t>Mobile Number Change By Branch</t>
+  </si>
+  <si>
+    <t>Chequebook Request By Branch</t>
+  </si>
+  <si>
+    <t>Card Linking</t>
+  </si>
+  <si>
+    <t>Card Linking By Branch</t>
+  </si>
+  <si>
+    <t>Debit Card Reissuance By Branch</t>
+  </si>
+  <si>
+    <t>Debit Card New Issuance By Branch</t>
+  </si>
+  <si>
+    <t>Sent To Ops</t>
+  </si>
+  <si>
+    <t>Virtual to Physical Card Conversion</t>
+  </si>
+  <si>
+    <t>Bar Code</t>
+  </si>
+  <si>
+    <t>Email Modification By Branch - OTP</t>
+  </si>
+  <si>
+    <t>OTP Based</t>
+  </si>
+  <si>
+    <t>Chequebook Request By Branch - OTP</t>
+  </si>
+  <si>
+    <t>Stop Payment Revocation By Branch - OTP</t>
+  </si>
+  <si>
+    <t>STOLEN BANK</t>
+  </si>
+  <si>
+    <t>Stop Payment Cheque By Branch - OTP</t>
+  </si>
+  <si>
+    <t>LOST IN POST</t>
+  </si>
+  <si>
+    <t>Card Block By Branch - OTP</t>
+  </si>
+  <si>
+    <t>Card Unblock By Branch - OTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Delinking By Branch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Delinking By Branch - OTP </t>
+  </si>
+  <si>
+    <t>Card Linking By Branch - OTP</t>
+  </si>
+  <si>
+    <t>Virtual to Physical Card Conversion By Branch</t>
+  </si>
+  <si>
+    <t>Virtual to Physical Card Conversion By Branch - OTP</t>
+  </si>
+  <si>
+    <t>Debit Card New Issuance By Branch - OTP</t>
+  </si>
+  <si>
+    <t>Switch On/Off International/Domestic Usage By Branch - OTP</t>
+  </si>
+  <si>
+    <t>DNC Registration By Branch - OTP</t>
+  </si>
+  <si>
+    <t>DNC Deregistration By Branch -OTP</t>
+  </si>
+  <si>
+    <t>Net Banking By Branchn- OTP(Block BackbaseID)</t>
+  </si>
+  <si>
+    <t>Error Message</t>
+  </si>
+  <si>
+    <t>Account Number is Mandatory for selected combination</t>
+  </si>
+  <si>
+    <t>Account Error_BlockBackBase</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Internal Fund Transfer</t>
+  </si>
+  <si>
+    <t>Account Error_InternalFundTransfer</t>
+  </si>
+  <si>
+    <t>Card hotlisting</t>
+  </si>
+  <si>
+    <t>Account Error_StopPaymentRevocation</t>
+  </si>
+  <si>
+    <t>Account Error_SwitchOnOffInternationalDomesticUsage</t>
+  </si>
+  <si>
+    <t>Account Error_DebitCardNewIssuance</t>
+  </si>
+  <si>
+    <t>Account Error_DebitCardReissuance</t>
+  </si>
+  <si>
+    <t>Account Error_CardDelinking</t>
+  </si>
+  <si>
+    <t>Account Error_CardLinking</t>
+  </si>
+  <si>
+    <t>Account Error_CardUnblock</t>
+  </si>
+  <si>
+    <t>Account Error_CardBlock</t>
+  </si>
+  <si>
+    <t>Account Error_StopPaymentOfChq</t>
+  </si>
+  <si>
+    <t>Account Error_VirtualToPhysicalCardConversion</t>
+  </si>
+  <si>
+    <t>Account Error_CardHotlisting</t>
+  </si>
+  <si>
+    <t>Account Error_ChequebookRequest</t>
+  </si>
+  <si>
+    <t>Account Error_DebitCreditFreeze</t>
+  </si>
+  <si>
+    <t>Debit Credit Freeze</t>
+  </si>
+  <si>
+    <t>CardNoError_CardBlock</t>
+  </si>
+  <si>
+    <t>Card Number is Mandatory.</t>
+  </si>
+  <si>
+    <t>CardNoError_CardUnblock</t>
+  </si>
+  <si>
+    <t>CardNoError_Cardhotlisting</t>
+  </si>
+  <si>
+    <t>DebitNoError_DebitCardReissuance</t>
+  </si>
+  <si>
+    <t>CardNoError_CardDelinking</t>
+  </si>
+  <si>
+    <t>CardNoError_CardLinking</t>
+  </si>
+  <si>
+    <t>VirtualNoError_VirtualtoPhysicalCardConversion</t>
+  </si>
+  <si>
+    <t>SwitchNoError_SwitchOnOffInternationalDomesticUsage</t>
+  </si>
+  <si>
+    <t>Virtual Physical Card Conversion - BOC</t>
+  </si>
+  <si>
+    <t>PAN Update - Branch</t>
+  </si>
+  <si>
+    <t>91'</t>
+  </si>
+  <si>
+    <t>Stop Payment Cheque By Branch - Bank Induced</t>
+  </si>
+  <si>
+    <t>Bank Induced</t>
+  </si>
+  <si>
+    <t>Level 2 Authentication is Mandatory for this SR. Please validate (1 static field and 1 Dynamic field) and in case of no customer induced transactions please validate 3 static fields.</t>
+  </si>
+  <si>
+    <t>This is a Critical SR. Kindly process the case by logging in respective system i.e DCMS or CBS</t>
+  </si>
+  <si>
+    <t>Authentication Failure</t>
+  </si>
+  <si>
+    <t>Email Modification - STP failure</t>
+  </si>
+  <si>
+    <t>Debit Credit Freeze - BOC</t>
+  </si>
+  <si>
+    <t>Freeze/Unfreeze Type</t>
+  </si>
+  <si>
+    <t>Freeze/Unfreeze Source</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Credit Freeze</t>
+  </si>
+  <si>
+    <t>Court Order</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>Total Freeze</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseStopPaymentRevocation</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardUnBlock</t>
+  </si>
+  <si>
+    <t>selectAccount,createCasePANUpdate</t>
+  </si>
+  <si>
+    <t>Omkar Yashwant Sanap</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardLinkingByBranch</t>
+  </si>
+  <si>
+    <t>Switch On/Off International/Domestic Usage - BOC</t>
+  </si>
+  <si>
+    <t>DNC Registration - BOC</t>
+  </si>
+  <si>
+    <t>DNC Deregistration - BOC</t>
+  </si>
+  <si>
+    <t>Net Banking_blockbaseID - BOC</t>
+  </si>
+  <si>
+    <t>Blockback Base Id - L2 level error validation</t>
+  </si>
+  <si>
+    <t>Blockback Base Id - Sent To Ops - Critical SR error validation</t>
+  </si>
+  <si>
+    <t>Blockback Base Id - Create Case -Authentication Failure</t>
+  </si>
+  <si>
+    <t>Blockback Base Id - STP Failure - internalMode_Error Validation</t>
+  </si>
+  <si>
+    <t>Blockback Base Id - STP Failure - RetryClose</t>
+  </si>
+  <si>
+    <t>Automation BOC User</t>
+  </si>
+  <si>
+    <t>Automation User Person 1</t>
+  </si>
+  <si>
+    <t>Laxmi Mittal</t>
+  </si>
+  <si>
+    <t>automation User Person 1</t>
+  </si>
+  <si>
+    <t>Automation User Person 2</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardBlock</t>
+  </si>
+  <si>
+    <t>validateCardMandatoryErrorForAllCombo</t>
+  </si>
+  <si>
+    <t>validateAccountMandatoryErrorForAllCombo</t>
+  </si>
+  <si>
+    <t>validationErrorLevelL2ByBOC</t>
+  </si>
+  <si>
+    <t>AJANTA STEEL PVT LTD</t>
+  </si>
+  <si>
+    <t>0'</t>
+  </si>
+  <si>
+    <t>12345000000000000000'</t>
+  </si>
+  <si>
+    <t>678900000000000000000'</t>
+  </si>
+  <si>
+    <t>searchUserAndLogin,selectAccount,createCaseChequeBookRequest</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseDebitCardNewIssuance</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseSwitchInternationalDomesticUsage</t>
+  </si>
+  <si>
+    <t>Automation Branch User</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseVirtualPhysicalCardConversionByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseStopPaymentRevocationByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseSwitchInternationalDomesticUsageByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardUnBlockByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseChequeBookRequestByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseMobileNumberChangeByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseDNCDeRegistrationByBranch</t>
+  </si>
+  <si>
+    <t>Automation User Person 3</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardLinkingByBOC</t>
+  </si>
+  <si>
+    <t>Fraud Reporting</t>
+  </si>
+  <si>
+    <t>Debit Credit Freeze - Branch - OTP</t>
+  </si>
+  <si>
+    <t>You have exhausted the maximum number of STP attempts for your channel. Kindly process case manually, or send to Ops.</t>
+  </si>
+  <si>
+    <t>STP Failed</t>
+  </si>
+  <si>
+    <t>selectAccount,validationAuthenticationFailureStatusCodeByBOC</t>
+  </si>
+  <si>
+    <t>Email Modification SR Creation - STP Processed</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardDelinking</t>
+  </si>
+  <si>
+    <t>selectAccount,validateAccountMandatoryError</t>
+  </si>
+  <si>
+    <t>selectAccount,validateCardnoMandatoryError</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardDelinkingByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardReissuanceByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardNewIssuanceByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseCardBlockByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseDNCRegistrationByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseNetBankingByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseNetBankingSTPFailure</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseDebitCreditFreezeByBranch</t>
+  </si>
+  <si>
+    <t>searchUserLoginOnSetUpPage,selectAccount,createCaseEmailModificationByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCasePANUpdateByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseDebitCreditFreezeByBOC</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseVirtualPhysicalCardConversionByBOC</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseNetBanking</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>ALVPJ0894K</t>
-  </si>
-  <si>
-    <t>Vandana</t>
-  </si>
-  <si>
-    <t>Card Unblock</t>
-  </si>
-  <si>
-    <t>Stop Payment of Cheque</t>
-  </si>
-  <si>
-    <t>Stop Payment of Chq</t>
-  </si>
-  <si>
-    <t>DNC</t>
-  </si>
-  <si>
-    <t>Local DNC Registration</t>
-  </si>
-  <si>
-    <t>Local DNC Deregistration</t>
-  </si>
-  <si>
-    <t>NetBanking</t>
-  </si>
-  <si>
-    <t>Block Backbase ID</t>
-  </si>
-  <si>
-    <t>Card delinking</t>
-  </si>
-  <si>
-    <t>Card Delinking</t>
-  </si>
-  <si>
-    <t>Reason for Reissue</t>
-  </si>
-  <si>
-    <t>Debit Card Reissuance</t>
-  </si>
-  <si>
-    <t>Lost/Stolen</t>
-  </si>
-  <si>
-    <t>Debit Card New Issuance</t>
-  </si>
-  <si>
-    <t>Switch On</t>
-  </si>
-  <si>
-    <t>Switch On/Off International/Domestic Usage</t>
-  </si>
-  <si>
-    <t>Authentication Mode</t>
-  </si>
-  <si>
-    <t>Email Modification By Branch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseEmailModificationByBranch</t>
-  </si>
-  <si>
-    <t>Vishakha Branch</t>
-  </si>
-  <si>
-    <t>Form Based</t>
-  </si>
-  <si>
-    <t>Mobile Number Change By Branch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseMobileNumberChangeByBranch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseChequeBookRequestByBranch</t>
-  </si>
-  <si>
-    <t>Chequebook Request By Branch</t>
-  </si>
-  <si>
-    <t>Card Linking</t>
-  </si>
-  <si>
-    <t>Card Linking By Branch</t>
-  </si>
-  <si>
-    <t>Debit Card Reissuance By Branch</t>
-  </si>
-  <si>
-    <t>Debit Card New Issuance By Branch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardReissuanceByBranch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardNewIssuanceByBranch</t>
-  </si>
-  <si>
-    <t>Sent To Ops</t>
-  </si>
-  <si>
-    <t>Virtual to Physical Card Conversion</t>
-  </si>
-  <si>
-    <t>Bar Code</t>
-  </si>
-  <si>
-    <t>123'</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseVirtualPhysicalCardConversionByBranch</t>
-  </si>
-  <si>
-    <t>BRCC_Virtual1 OPTIMUS ONE</t>
-  </si>
-  <si>
-    <t>Email Modification By Branch - OTP</t>
-  </si>
-  <si>
-    <t>OTP Based</t>
-  </si>
-  <si>
-    <t>Chequebook Request By Branch - OTP</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseStopPaymentRevocationByBranch</t>
-  </si>
-  <si>
-    <t>Stop Payment Revocation By Branch - OTP</t>
-  </si>
-  <si>
-    <t>STOLEN BANK</t>
-  </si>
-  <si>
-    <t>Stop Payment Cheque By Branch - OTP</t>
-  </si>
-  <si>
-    <t>LOST IN POST</t>
-  </si>
-  <si>
-    <t>Card Block By Branch - OTP</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardBlockByBranch</t>
-  </si>
-  <si>
-    <t>Card Unblock By Branch - OTP</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardUnBlockByBranch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card Delinking By Branch </t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardDelinkingByBranch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Card Delinking By Branch - OTP </t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseCardLinkingByBranch</t>
-  </si>
-  <si>
-    <t>Card Linking By Branch - OTP</t>
-  </si>
-  <si>
-    <t>Virtual to Physical Card Conversion By Branch</t>
-  </si>
-  <si>
-    <t>Virtual to Physical Card Conversion By Branch - OTP</t>
-  </si>
-  <si>
-    <t>Debit Card Reissuance By Branch - OTP</t>
-  </si>
-  <si>
-    <t>Debit Card New Issuance By Branch - OTP</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseSwitchInternationalDomesticUsageByBranch</t>
-  </si>
-  <si>
-    <t>Switch On/Off International/Domestic Usage By Branch - OTP</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseDNCRegistrationByBranch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseDNCDeRegistrationByBranch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseNetBankingByBranch</t>
-  </si>
-  <si>
-    <t>DNC Registration By Branch - OTP</t>
-  </si>
-  <si>
-    <t>DNC Deregistration By Branch -OTP</t>
-  </si>
-  <si>
-    <t>Net Banking By Branchn- OTP(Block BackbaseID)</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,validateAccountMandatoryError</t>
-  </si>
-  <si>
-    <t>Error Message</t>
-  </si>
-  <si>
-    <t>Account Number is Mandatory for selected combination</t>
-  </si>
-  <si>
-    <t>Account Error_BlockBackBase</t>
-  </si>
-  <si>
-    <t>Payments</t>
-  </si>
-  <si>
-    <t>Internal Fund Transfer</t>
-  </si>
-  <si>
-    <t>Account Error_InternalFundTransfer</t>
-  </si>
-  <si>
-    <t>Card hotlisting</t>
-  </si>
-  <si>
-    <t>Account Error_StopPaymentRevocation</t>
-  </si>
-  <si>
-    <t>Account Error_SwitchOnOffInternationalDomesticUsage</t>
-  </si>
-  <si>
-    <t>Account Error_DebitCardNewIssuance</t>
-  </si>
-  <si>
-    <t>Account Error_DebitCardReissuance</t>
-  </si>
-  <si>
-    <t>Account Error_CardDelinking</t>
-  </si>
-  <si>
-    <t>Account Error_CardLinking</t>
-  </si>
-  <si>
-    <t>Account Error_CardUnblock</t>
-  </si>
-  <si>
-    <t>Account Error_CardBlock</t>
-  </si>
-  <si>
-    <t>Account Error_StopPaymentOfChq</t>
-  </si>
-  <si>
-    <t>Account Error_VirtualToPhysicalCardConversion</t>
-  </si>
-  <si>
-    <t>Account Error_CardHotlisting</t>
-  </si>
-  <si>
-    <t>Account Error_ChequebookRequest</t>
-  </si>
-  <si>
-    <t>Account Error_DebitCreditFreeze</t>
-  </si>
-  <si>
-    <t>Debit Credit Freeze</t>
-  </si>
-  <si>
-    <t>CardNoError_CardBlock</t>
-  </si>
-  <si>
-    <t>Card Number is Mandatory.</t>
-  </si>
-  <si>
-    <t>CardNoError_CardUnblock</t>
-  </si>
-  <si>
-    <t>CardNoError_Cardhotlisting</t>
-  </si>
-  <si>
-    <t>DebitNoError_DebitCardReissuance</t>
-  </si>
-  <si>
-    <t>CardNoError_CardDelinking</t>
-  </si>
-  <si>
-    <t>CardNoError_CardLinking</t>
-  </si>
-  <si>
-    <t>VirtualNoError_VirtualtoPhysicalCardConversion</t>
-  </si>
-  <si>
-    <t>SwitchNoError_SwitchOnOffInternationalDomesticUsage</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,validateCardnoMandatoryError</t>
-  </si>
-  <si>
-    <t>Virtual Physical Card Conversion - BOC</t>
-  </si>
-  <si>
-    <t>PAN Update - Branch</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCasePANUpdateByBranch</t>
-  </si>
-  <si>
-    <t>91'</t>
-  </si>
-  <si>
-    <t>Stop Payment Cheque By Branch - Bank Induced</t>
-  </si>
-  <si>
-    <t>Bank Induced</t>
-  </si>
-  <si>
-    <t>Level 2 Authentication is Mandatory for this SR. Please validate (1 static field and 1 Dynamic field) and in case of no customer induced transactions please validate 3 static fields.</t>
-  </si>
-  <si>
-    <t>This is a Critical SR. Kindly process the case by logging in respective system i.e DCMS or CBS</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,validationErrorSentToOpsCriticalSRByBOC</t>
-  </si>
-  <si>
-    <t>Authentication Failure</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,validationAuthenticationFailureStatusCodeByBOC</t>
-  </si>
-  <si>
-    <t>STP Failed due to Response:- Invalid Request and Response code:- IVR001</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseNetBankingSTPFailure</t>
-  </si>
-  <si>
-    <t>Email Modification - STP failure</t>
-  </si>
-  <si>
-    <t>Debit Credit Freeze - BOC</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseDebitCreditFreezeByBOC</t>
-  </si>
-  <si>
-    <t>Freeze/Unfreeze Type</t>
-  </si>
-  <si>
-    <t>Freeze/Unfreeze Source</t>
-  </si>
-  <si>
-    <t>Reason</t>
-  </si>
-  <si>
-    <t>Credit Freeze</t>
-  </si>
-  <si>
-    <t>Court Order</t>
-  </si>
-  <si>
-    <t>Freezing</t>
-  </si>
-  <si>
-    <t>Total Freeze</t>
-  </si>
-  <si>
-    <t>IT Authority</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseDebitCreditFreezeByBranch</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseStopPaymentRevocation</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseCardUnBlock</t>
-  </si>
-  <si>
-    <t>selectAccount,createCasePANUpdate</t>
-  </si>
-  <si>
     <t>selectAccount,createCaseDNCDeRegistration</t>
   </si>
   <si>
-    <t>selectAccount,createCaseCardLinkingByBOC</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseDebitCardNewIssuance</t>
-  </si>
-  <si>
-    <t>Omkar Yashwant Sanap</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseCardDelinkingByBranch</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseCardLinkingByBranch</t>
-  </si>
-  <si>
-    <t>Switch On/Off International/Domestic Usage - BOC</t>
-  </si>
-  <si>
-    <t>DNC Registration - BOC</t>
-  </si>
-  <si>
-    <t>DNC Deregistration - BOC</t>
-  </si>
-  <si>
-    <t>Net Banking_blockbaseID - BOC</t>
-  </si>
-  <si>
-    <t>Debit Credit Freeze - Branch(add OTP)</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - L2 level error validation</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - Sent To Ops - Critical SR error validation</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - Authentication Failure- Critical SR error validation</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - Create Case -Authentication Failure</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - STP Failure - internalMode_Error Validation</t>
-  </si>
-  <si>
-    <t>Blockback Base Id - STP Failure - RetryClose</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseVirtualPhysicalCardConversionByBOC,logoutUser</t>
-  </si>
-  <si>
-    <t>STP Failed due to Response:- Technical error occurred : Activity invocation failed and Response code:- NARR999</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseMobileNumberChange</t>
-  </si>
-  <si>
-    <t>Automation BOC User</t>
-  </si>
-  <si>
-    <t>Automation User Person 1</t>
-  </si>
-  <si>
-    <t>Laxmi Mittal</t>
-  </si>
-  <si>
-    <t>automation User Person 1</t>
+    <t>selectAccount,createCaseDNCRegistration</t>
+  </si>
+  <si>
+    <t>selectAccount,creatCaseDebitCardReissuance</t>
+  </si>
+  <si>
+    <t>selectAccount,validationErrorSentToOpsCriticalSRByBOC</t>
   </si>
   <si>
     <t>selectAccount,createCaseSTPFailedRetryClose</t>
   </si>
   <si>
-    <t>searchUserAndLogin,selectAccount,createCaseEmailModificationSTPFailedByBOC</t>
-  </si>
-  <si>
-    <t>Automation User Person 2</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseChequeBookRequest</t>
-  </si>
-  <si>
-    <t>searchUserAndLogin,selectAccount,createCaseEmailModificationSRCreation</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseCardBlock</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseDNCRegistration</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseNetBanking</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseCardDelinking</t>
-  </si>
-  <si>
-    <t>selectAccount,creatCaseDebitCardReissuance</t>
-  </si>
-  <si>
-    <t>selectAccount,createCaseSwitchInternationalDomesticUsage</t>
-  </si>
-  <si>
-    <t>validateCardMandatoryErrorForAllCombo</t>
-  </si>
-  <si>
-    <t>validateAccountMandatoryErrorForAllCombo</t>
-  </si>
-  <si>
-    <t>validationErrorLevelL2ByBOC</t>
+    <t>selectAccount,createCaseEmailModificationSRCreation</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseEmailModificationByBranch</t>
+  </si>
+  <si>
+    <t>selectAccount,createCaseEmailModificationSTPFailedByBOC</t>
+  </si>
+  <si>
+    <t>NACH Cancellation</t>
+  </si>
+  <si>
+    <t>FTR &amp; Closed</t>
+  </si>
+  <si>
+    <t>NACH Mandate Cancellation</t>
+  </si>
+  <si>
+    <t>searchUserAndLogin,selectAccount,createCaseNACHMandateCancellation</t>
   </si>
 </sst>
 </file>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -725,6 +731,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y75"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1026,9 +1035,9 @@
     <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.81640625" customWidth="1"/>
     <col min="13" max="13" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.54296875" customWidth="1"/>
     <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.6328125" bestFit="1" customWidth="1"/>
@@ -1049,106 +1058,106 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1162,45 +1171,47 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
+    <row r="3" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="3">
-        <v>7.7777777777777705E+19</v>
-      </c>
-      <c r="L3" s="3">
-        <v>91</v>
-      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -1211,43 +1222,47 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
+    <row r="4" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1258,47 +1273,41 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="5">
-        <v>12345</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="5">
-        <v>67890</v>
-      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1309,47 +1318,41 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="5">
-        <v>12345</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5">
-        <v>67890</v>
-      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1365,25 +1368,25 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>31</v>
@@ -1395,7 +1398,9 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1407,31 +1412,31 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1452,31 +1457,31 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1485,9 +1490,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
@@ -1499,25 +1502,25 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>41</v>
@@ -1544,31 +1547,31 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1589,31 +1592,31 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1637,28 +1640,28 @@
         <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1668,7 +1671,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
@@ -1679,31 +1684,31 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1722,33 +1727,33 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>49</v>
+    <row r="15" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1758,10 +1763,10 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
@@ -1769,33 +1774,33 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>51</v>
+    <row r="16" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1814,33 +1819,33 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>190</v>
+        <v>143</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1851,43 +1856,47 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="W17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1901,42 +1910,42 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="V18" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1946,46 +1955,44 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="V19" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -1995,50 +2002,46 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="V20" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="3">
-        <v>7.7777777777777705E+19</v>
-      </c>
-      <c r="L21" s="3">
-        <v>91</v>
-      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2046,140 +2049,136 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="V21" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-      <c r="T23" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="V23" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2191,42 +2190,42 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
-      <c r="T24" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="V24" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>64</v>
+    <row r="25" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2238,42 +2237,42 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="V25" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
+        <v>150</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2285,42 +2284,42 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="V26" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2330,46 +2329,44 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="V27" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2381,42 +2378,42 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
-      <c r="T28" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="V28" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>74</v>
+        <v>150</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2428,44 +2425,42 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
-      <c r="T29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>74</v>
+        <v>150</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2477,203 +2472,183 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="V30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="5">
-        <v>12345</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="5">
-        <v>67890</v>
-      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="V31" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>150</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="5">
-        <v>12345</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P32" s="5">
-        <v>67890</v>
-      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="V32" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>37</v>
+        <v>177</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="5">
-        <v>12345</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P33" s="5">
-        <v>67890</v>
-      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="V33" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2685,42 +2660,42 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="V34" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>85</v>
+      <c r="A35" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>57</v>
+        <v>149</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2732,42 +2707,42 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="V35" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>57</v>
+        <v>149</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2779,42 +2754,42 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="V36" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2824,46 +2799,44 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="V37" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2875,42 +2848,42 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
+      <c r="V38" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>37</v>
+        <v>149</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2921,45 +2894,43 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="V39" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>57</v>
+        <v>149</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2971,42 +2942,42 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="V40" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>151</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>41</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3018,42 +2989,42 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
+      <c r="V41" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>37</v>
+        <v>195</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3065,42 +3036,42 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
-      <c r="T42" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
+      <c r="V42" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>173</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3113,41 +3084,39 @@
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="V43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="9"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3161,42 +3130,40 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-      <c r="V44" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V44" s="9"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J45" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="J45" s="3"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -3208,42 +3175,44 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
-      <c r="V45" s="7" t="s">
-        <v>106</v>
+      <c r="V45" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>112</v>
+    <row r="46" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>185</v>
+        <v>143</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="I46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -3255,46 +3224,50 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
-      <c r="V46" s="7" t="s">
-        <v>106</v>
+      <c r="V46" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>120</v>
+    <row r="47" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -3302,42 +3275,42 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
-      <c r="V47" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -3347,44 +3320,48 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U48" s="1">
+        <v>91</v>
+      </c>
+      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -3394,46 +3371,50 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
+      <c r="T49" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U49" s="1"/>
-      <c r="V49" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="I50" s="3" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="K50" s="3">
+        <v>7.7777777777777705E+19</v>
+      </c>
+      <c r="L50" s="3">
+        <v>91</v>
+      </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -3441,136 +3422,142 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
+      <c r="T50" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="U50" s="1"/>
-      <c r="V50" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U51" s="1">
+        <v>91</v>
+      </c>
+      <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>184</v>
+        <v>164</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U52" s="1"/>
-      <c r="V52" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3582,42 +3569,42 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
+      <c r="T53" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="U53" s="1"/>
-      <c r="V53" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>122</v>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>184</v>
+        <v>133</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3629,42 +3616,42 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="U54" s="1"/>
-      <c r="V54" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3674,44 +3661,48 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
+      <c r="R55" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U55" s="1">
+        <v>91</v>
+      </c>
+      <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3723,42 +3714,44 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U56" s="1">
+        <v>91</v>
+      </c>
+      <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3770,42 +3763,44 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U57" s="1">
+        <v>91</v>
+      </c>
+      <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
     </row>
-    <row r="58" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>125</v>
+        <v>30</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3817,183 +3812,203 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="T58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U58" s="1">
+        <v>91</v>
+      </c>
+      <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
     </row>
-    <row r="59" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
+      <c r="N59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
+      <c r="T59" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U59" s="1"/>
-      <c r="V59" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V59" s="1"/>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
+      <c r="N60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U60" s="1"/>
-      <c r="V60" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V60" s="1"/>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="N61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>155</v>
+      </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
+      <c r="T61" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="U61" s="1"/>
-      <c r="V61" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -4005,42 +4020,42 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
+      <c r="T62" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U62" s="1"/>
-      <c r="V62" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>131</v>
+      <c r="A63" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -4052,42 +4067,42 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
+      <c r="T63" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U63" s="1"/>
-      <c r="V63" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4099,42 +4114,42 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
+      <c r="T64" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U64" s="1"/>
-      <c r="V64" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>184</v>
+      <c r="D65" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4146,42 +4161,42 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
+      <c r="T65" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U65" s="1"/>
-      <c r="V65" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
     </row>
-    <row r="66" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4193,42 +4208,42 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="T66" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U66" s="1"/>
-      <c r="V66" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="V66" s="1"/>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
     </row>
-    <row r="67" spans="1:25" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>184</v>
+        <v>162</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4239,43 +4254,45 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+      <c r="S67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T67" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U67" s="1"/>
-      <c r="V67" s="2" t="s">
-        <v>142</v>
-      </c>
+      <c r="V67" s="1"/>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
     </row>
-    <row r="68" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>37</v>
+        <v>182</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4287,42 +4304,42 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="T68" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U68" s="1"/>
-      <c r="V68" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
     </row>
-    <row r="69" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>145</v>
+        <v>166</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4334,42 +4351,42 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+      <c r="T69" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U69" s="1"/>
-      <c r="V69" s="9" t="s">
-        <v>143</v>
-      </c>
+      <c r="V69" s="1"/>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
     </row>
-    <row r="70" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -4381,40 +4398,42 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
+      <c r="T70" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U70" s="1"/>
-      <c r="V70" s="9"/>
+      <c r="V70" s="1"/>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
     </row>
-    <row r="71" spans="1:25" ht="58" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4426,44 +4445,50 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
+      <c r="T71" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="U71" s="1"/>
-      <c r="V71" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-    </row>
-    <row r="72" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="V71" s="1"/>
+      <c r="W71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X71" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y71" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>14</v>
+        <v>187</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>187</v>
+        <v>34</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J72" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -4474,45 +4499,43 @@
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="U72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
     </row>
-    <row r="73" spans="1:25" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>149</v>
+    <row r="73" spans="1:25" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>132</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -4524,129 +4547,23 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
-      <c r="V73" s="9" t="s">
-        <v>182</v>
-      </c>
+      <c r="V73" s="1"/>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
     </row>
-    <row r="74" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y74" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="X75" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y75" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="value" error="Mobile no should be 20length" sqref="K3:K4 K21:K23" xr:uid="{F763C535-566C-4ACA-B093-A25B9FFE0525}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="value" error="Mobile no should be 20length" sqref="K2 K50:K52" xr:uid="{F763C535-566C-4ACA-B093-A25B9FFE0525}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P6 N5:N6 N31:N33 P31:P33" xr:uid="{7CDE3C0C-F5C0-44A4-895A-4EB63B8F28FB}">
-      <formula1>0</formula1>
-    </dataValidation>
+    <dataValidation operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4 P3:P4 N59:N61 P59:P61" xr:uid="{82FC96EE-C569-444C-8634-A466300CB374}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{C9F055AE-4A3D-4AA8-9019-886C0ED2FFA8}"/>
-    <hyperlink ref="J19" r:id="rId2" xr:uid="{132950D9-FB62-4925-B3A5-0FC685414D54}"/>
-    <hyperlink ref="J20" r:id="rId3" xr:uid="{6E7A39AD-CBEA-46F7-8D53-36C11E2BB207}"/>
-    <hyperlink ref="J73" r:id="rId4" xr:uid="{44624C11-C35C-4275-9AF4-2AD2E8686492}"/>
+    <hyperlink ref="J46" r:id="rId1" xr:uid="{44624C11-C35C-4275-9AF4-2AD2E8686492}"/>
+    <hyperlink ref="J47" r:id="rId2" xr:uid="{CC9BA52F-B16B-4E18-AF1E-6F4ABFD9F002}"/>
+    <hyperlink ref="J48" r:id="rId3" xr:uid="{5002FED8-12C2-4D1A-BD55-7B87F186ECB6}"/>
+    <hyperlink ref="J49" r:id="rId4" xr:uid="{A86091F9-D406-43AC-ACF3-5DCDA05F5CED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
